--- a/2-working-with-multiple-groups/anscombe.xlsx
+++ b/2-working-with-multiple-groups/anscombe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-intermediate-stats\2-working-with-multiple-groups\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-intermediate-stats\2-working-with-multiple-groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3177EAA1-6595-4774-B11C-8739F6F608C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D5EE09-B1FA-46F3-8E92-6658A3C65082}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13373" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="anscombe" sheetId="3" r:id="rId1"/>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
-  <si>
-    <t>y</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>x</t>
   </si>
@@ -48,6 +45,18 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>y4</t>
   </si>
 </sst>
 </file>
@@ -892,70 +901,70 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.52734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.64453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.52734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.64453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.52734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.64453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.52734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.52734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.64453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.52734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.64453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.52734375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.52734375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>10</v>
       </c>
@@ -981,7 +990,7 @@
         <v>6.58</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>8</v>
       </c>
@@ -1007,7 +1016,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>13</v>
       </c>
@@ -1033,7 +1042,7 @@
         <v>7.71</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>9</v>
       </c>
@@ -1059,7 +1068,7 @@
         <v>8.84</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>11</v>
       </c>
@@ -1085,7 +1094,7 @@
         <v>8.4700000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>14</v>
       </c>
@@ -1111,7 +1120,7 @@
         <v>7.04</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1137,7 +1146,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1163,7 +1172,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>12</v>
       </c>
@@ -1189,7 +1198,7 @@
         <v>5.56</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>7</v>
       </c>
@@ -1215,7 +1224,7 @@
         <v>7.91</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>5</v>
       </c>
